--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H2">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I2">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J2">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.253707</v>
+        <v>0.06706333333333332</v>
       </c>
       <c r="N2">
-        <v>3.761121</v>
+        <v>0.20119</v>
       </c>
       <c r="O2">
-        <v>0.07760709912293905</v>
+        <v>0.01564803973866319</v>
       </c>
       <c r="P2">
-        <v>0.1037097015912075</v>
+        <v>0.01878890697104963</v>
       </c>
       <c r="Q2">
-        <v>7.774953391599333</v>
+        <v>0.09663730209222222</v>
       </c>
       <c r="R2">
-        <v>69.974580524394</v>
+        <v>0.86973571883</v>
       </c>
       <c r="S2">
-        <v>0.004052247330818697</v>
+        <v>0.001718726748812476</v>
       </c>
       <c r="T2">
-        <v>0.007680981655858417</v>
+        <v>0.002311340562257442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H3">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I3">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J3">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.505127</v>
       </c>
       <c r="O3">
-        <v>0.07232491018701338</v>
+        <v>0.2726197454399388</v>
       </c>
       <c r="P3">
-        <v>0.09665088552303537</v>
+        <v>0.3273398534952746</v>
       </c>
       <c r="Q3">
-        <v>7.245765040964222</v>
+        <v>1.683612588948778</v>
       </c>
       <c r="R3">
-        <v>65.21188536867798</v>
+        <v>15.152513300539</v>
       </c>
       <c r="S3">
-        <v>0.003776438335786205</v>
+        <v>0.02994361316608594</v>
       </c>
       <c r="T3">
-        <v>0.007158189323995172</v>
+        <v>0.04026811576601095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H4">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I4">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J4">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6422343333333332</v>
+        <v>0.72155</v>
       </c>
       <c r="N4">
-        <v>1.926703</v>
+        <v>2.16465</v>
       </c>
       <c r="O4">
-        <v>0.03975565548182683</v>
+        <v>0.1683608987539007</v>
       </c>
       <c r="P4">
-        <v>0.05312719085211143</v>
+        <v>0.2021542197668005</v>
       </c>
       <c r="Q4">
-        <v>3.982862030882444</v>
+        <v>1.039743207783334</v>
       </c>
       <c r="R4">
-        <v>35.84575827794199</v>
+        <v>9.357688870050001</v>
       </c>
       <c r="S4">
-        <v>0.002075837785870323</v>
+        <v>0.0184921808082754</v>
       </c>
       <c r="T4">
-        <v>0.003934723291084593</v>
+        <v>0.02486825064909078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H5">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I5">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J5">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1977655</v>
+        <v>2.1492875</v>
       </c>
       <c r="N5">
-        <v>24.395531</v>
+        <v>4.298575</v>
       </c>
       <c r="O5">
-        <v>0.7550673293176684</v>
+        <v>0.501498129277977</v>
       </c>
       <c r="P5">
-        <v>0.6726859466018379</v>
+        <v>0.4014390664699025</v>
       </c>
       <c r="Q5">
-        <v>75.64531285552232</v>
+        <v>3.097092481045834</v>
       </c>
       <c r="R5">
-        <v>453.8718771331339</v>
+        <v>18.582554886275</v>
       </c>
       <c r="S5">
-        <v>0.03942576909064669</v>
+        <v>0.05508282594271529</v>
       </c>
       <c r="T5">
-        <v>0.04982068540095501</v>
+        <v>0.04938352183212776</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H6">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I6">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J6">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8924576666666667</v>
+        <v>0.1794573333333333</v>
       </c>
       <c r="N6">
-        <v>2.677373</v>
+        <v>0.538372</v>
       </c>
       <c r="O6">
-        <v>0.05524500589055249</v>
+        <v>0.04187318678952025</v>
       </c>
       <c r="P6">
-        <v>0.07382627543180768</v>
+        <v>0.05027795329697268</v>
       </c>
       <c r="Q6">
-        <v>5.534639881813556</v>
+        <v>0.2585954451115556</v>
       </c>
       <c r="R6">
-        <v>49.811758936322</v>
+        <v>2.327359006004</v>
       </c>
       <c r="S6">
-        <v>0.002884612750521998</v>
+        <v>0.004599206507339683</v>
       </c>
       <c r="T6">
-        <v>0.005467745626607231</v>
+        <v>0.006185004429562423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>22.384924</v>
       </c>
       <c r="I7">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J7">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.253707</v>
+        <v>0.06706333333333332</v>
       </c>
       <c r="N7">
-        <v>3.761121</v>
+        <v>0.20119</v>
       </c>
       <c r="O7">
-        <v>0.07760709912293905</v>
+        <v>0.01564803973866319</v>
       </c>
       <c r="P7">
-        <v>0.1037097015912075</v>
+        <v>0.01878890697104963</v>
       </c>
       <c r="Q7">
-        <v>9.354711971089333</v>
+        <v>0.5004025399511109</v>
       </c>
       <c r="R7">
-        <v>84.192407739804</v>
+        <v>4.503622859559999</v>
       </c>
       <c r="S7">
-        <v>0.00487560564110684</v>
+        <v>0.008899826588359395</v>
       </c>
       <c r="T7">
-        <v>0.009241646531722273</v>
+        <v>0.0119684703836402</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>22.384924</v>
       </c>
       <c r="I8">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J8">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.505127</v>
       </c>
       <c r="O8">
-        <v>0.07232491018701338</v>
+        <v>0.2726197454399388</v>
       </c>
       <c r="P8">
-        <v>0.09665088552303537</v>
+        <v>0.3273398534952746</v>
       </c>
       <c r="Q8">
         <v>8.718000167260888</v>
@@ -948,10 +948,10 @@
         <v>78.46200150534798</v>
       </c>
       <c r="S8">
-        <v>0.004543756229591096</v>
+        <v>0.1550525496802843</v>
       </c>
       <c r="T8">
-        <v>0.008612630325585402</v>
+        <v>0.2085143828738886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>22.384924</v>
       </c>
       <c r="I9">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J9">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6422343333333332</v>
+        <v>0.72155</v>
       </c>
       <c r="N9">
-        <v>1.926703</v>
+        <v>2.16465</v>
       </c>
       <c r="O9">
-        <v>0.03975565548182683</v>
+        <v>0.1683608987539007</v>
       </c>
       <c r="P9">
-        <v>0.05312719085211143</v>
+        <v>0.2021542197668005</v>
       </c>
       <c r="Q9">
-        <v>4.792122247285777</v>
+        <v>5.383947304066666</v>
       </c>
       <c r="R9">
-        <v>43.129100225572</v>
+        <v>48.45552573659999</v>
       </c>
       <c r="S9">
-        <v>0.002497618134470407</v>
+        <v>0.09575530406328431</v>
       </c>
       <c r="T9">
-        <v>0.004734202408699134</v>
+        <v>0.128771556319632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>22.384924</v>
       </c>
       <c r="I10">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J10">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.1977655</v>
+        <v>2.1492875</v>
       </c>
       <c r="N10">
-        <v>24.395531</v>
+        <v>4.298575</v>
       </c>
       <c r="O10">
-        <v>0.7550673293176684</v>
+        <v>0.501498129277977</v>
       </c>
       <c r="P10">
-        <v>0.6726859466018379</v>
+        <v>0.4014390664699025</v>
       </c>
       <c r="Q10">
-        <v>91.01535122910732</v>
+        <v>16.03721244721666</v>
       </c>
       <c r="R10">
-        <v>546.0921073746439</v>
+        <v>96.22327468329998</v>
       </c>
       <c r="S10">
-        <v>0.04743651768770406</v>
+        <v>0.2852271888045405</v>
       </c>
       <c r="T10">
-        <v>0.05994353131836842</v>
+        <v>0.2557153316733247</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>22.384924</v>
       </c>
       <c r="I11">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J11">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.8924576666666667</v>
+        <v>0.1794573333333333</v>
       </c>
       <c r="N11">
-        <v>2.677373</v>
+        <v>0.538372</v>
       </c>
       <c r="O11">
-        <v>0.05524500589055249</v>
+        <v>0.04187318678952025</v>
       </c>
       <c r="P11">
-        <v>0.07382627543180768</v>
+        <v>0.05027795329697268</v>
       </c>
       <c r="Q11">
-        <v>6.659199013850222</v>
+        <v>1.339046255969778</v>
       </c>
       <c r="R11">
-        <v>59.932791124652</v>
+        <v>12.051416303728</v>
       </c>
       <c r="S11">
-        <v>0.003470724526583203</v>
+        <v>0.02381538565549096</v>
       </c>
       <c r="T11">
-        <v>0.006578712809180256</v>
+        <v>0.03202688671097541</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H12">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I12">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J12">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.253707</v>
+        <v>0.06706333333333332</v>
       </c>
       <c r="N12">
-        <v>3.761121</v>
+        <v>0.20119</v>
       </c>
       <c r="O12">
-        <v>0.07760709912293905</v>
+        <v>0.01564803973866319</v>
       </c>
       <c r="P12">
-        <v>0.1037097015912075</v>
+        <v>0.01878890697104963</v>
       </c>
       <c r="Q12">
-        <v>131.773283859854</v>
+        <v>0.2827884054783333</v>
       </c>
       <c r="R12">
-        <v>790.639703159124</v>
+        <v>1.69673043287</v>
       </c>
       <c r="S12">
-        <v>0.06867924615101351</v>
+        <v>0.005029486401491317</v>
       </c>
       <c r="T12">
-        <v>0.08678707340362679</v>
+        <v>0.004509096025151986</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H13">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I13">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J13">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.505127</v>
       </c>
       <c r="O13">
-        <v>0.07232491018701338</v>
+        <v>0.2726197454399388</v>
       </c>
       <c r="P13">
-        <v>0.09665088552303537</v>
+        <v>0.3273398534952746</v>
       </c>
       <c r="Q13">
-        <v>122.8043700630313</v>
+        <v>4.926732319345167</v>
       </c>
       <c r="R13">
-        <v>736.8262203781879</v>
+        <v>29.560393916071</v>
       </c>
       <c r="S13">
-        <v>0.06400471562163608</v>
+        <v>0.08762358259356856</v>
       </c>
       <c r="T13">
-        <v>0.0808800658734548</v>
+        <v>0.07855735485537506</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H14">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I14">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J14">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6422343333333332</v>
+        <v>0.72155</v>
       </c>
       <c r="N14">
-        <v>1.926703</v>
+        <v>2.16465</v>
       </c>
       <c r="O14">
-        <v>0.03975565548182683</v>
+        <v>0.1683608987539007</v>
       </c>
       <c r="P14">
-        <v>0.05312719085211143</v>
+        <v>0.2021542197668005</v>
       </c>
       <c r="Q14">
-        <v>67.50327397938865</v>
+        <v>3.042586221575</v>
       </c>
       <c r="R14">
-        <v>405.0196438763319</v>
+        <v>18.25551732945</v>
       </c>
       <c r="S14">
-        <v>0.0351821995614861</v>
+        <v>0.05411341388234098</v>
       </c>
       <c r="T14">
-        <v>0.0444582651523277</v>
+        <v>0.04851441279807768</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H15">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I15">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J15">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.1977655</v>
+        <v>2.1492875</v>
       </c>
       <c r="N15">
-        <v>24.395531</v>
+        <v>4.298575</v>
       </c>
       <c r="O15">
-        <v>0.7550673293176684</v>
+        <v>0.501498129277977</v>
       </c>
       <c r="P15">
-        <v>0.6726859466018379</v>
+        <v>0.4014390664699025</v>
       </c>
       <c r="Q15">
-        <v>1282.069586982791</v>
+        <v>9.062979050243749</v>
       </c>
       <c r="R15">
-        <v>5128.278347931164</v>
+        <v>36.251916200975</v>
       </c>
       <c r="S15">
-        <v>0.6682050425393177</v>
+        <v>0.1611881145307213</v>
       </c>
       <c r="T15">
-        <v>0.5629217298825144</v>
+        <v>0.09634021296445001</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>105.106922</v>
+        <v>4.2167365</v>
       </c>
       <c r="H16">
-        <v>210.213844</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I16">
-        <v>0.8849608724869005</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J16">
-        <v>0.836826951307944</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.8924576666666667</v>
+        <v>0.1794573333333333</v>
       </c>
       <c r="N16">
-        <v>2.677373</v>
+        <v>0.538372</v>
       </c>
       <c r="O16">
-        <v>0.05524500589055249</v>
+        <v>0.04187318678952025</v>
       </c>
       <c r="P16">
-        <v>0.07382627543180768</v>
+        <v>0.05027795329697268</v>
       </c>
       <c r="Q16">
-        <v>93.80347835863533</v>
+        <v>0.7567242876593333</v>
       </c>
       <c r="R16">
-        <v>562.8208701518121</v>
+        <v>4.540345725956</v>
       </c>
       <c r="S16">
-        <v>0.04888966861344729</v>
+        <v>0.01345859462668962</v>
       </c>
       <c r="T16">
-        <v>0.06177981699602019</v>
+        <v>0.01206606215643484</v>
       </c>
     </row>
   </sheetData>
